--- a/Szenario/Trendliste.xlsx
+++ b/Szenario/Trendliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaydi\Desktop\Projekt_2023\Projekt2023\Szenario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6234398A-0994-4886-BEDB-F9FABD9830D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA051110-A2CA-4771-BC9E-F80D3E53BECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E6907596-81E6-6F4C-A812-8C8B9EC6A8F9}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="21720" xr2:uid="{E6907596-81E6-6F4C-A812-8C8B9EC6A8F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Trend_Indikator_Quellen" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Trend_Indikator_Quellen!$A$1:$AL$260</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <pivotCaches>
     <pivotCache cacheId="2" r:id="rId9"/>
     <pivotCache cacheId="3" r:id="rId10"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2434" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2440" uniqueCount="875">
   <si>
     <t>Nr.</t>
   </si>
@@ -2882,12 +2882,15 @@
   <si>
     <t>Smart Citys sind insbesondere mit AR und Sprachtechnologien verknüpft um flächendecken internationale Barrieren zu brechen und die Städte in höchstem Grad zu digitalisieren</t>
   </si>
+  <si>
+    <t>x</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2940,11 +2943,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
     </font>
   </fonts>
   <fills count="10">
@@ -3370,6 +3368,9 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3399,9 +3400,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3505,7 +3503,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3561,7 +3559,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3617,7 +3615,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3673,7 +3671,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3729,7 +3727,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3785,7 +3783,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
           <c:showLegendKey val="0"/>
@@ -3860,7 +3858,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="265780496"/>
@@ -3919,7 +3917,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="265778768"/>
@@ -3961,7 +3959,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3998,7 +3996,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -16883,116 +16881,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{478CC6F9-D53B-1149-B50F-D42E15783ACC}" name="PivotTable4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:A6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="23">
-        <item h="1" x="16"/>
-        <item h="1" x="17"/>
-        <item h="1" x="18"/>
-        <item h="1" x="19"/>
-        <item h="1" x="20"/>
-        <item h="1" x="21"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item h="1" x="12"/>
-        <item h="1" x="13"/>
-        <item h="1" x="14"/>
-        <item h="1" x="15"/>
-        <item x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="14">
-        <item x="5"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="11"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="12"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="14">
-        <item x="2"/>
-        <item x="12"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="7"/>
-        <item x="9"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="1"/>
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="0" hier="-1"/>
-  </pageFields>
-  <formats count="1">
-    <format dxfId="0">
-      <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1C733ABF-3340-BF41-AA68-20B893CB7B32}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A9:A42" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="38">
@@ -17182,6 +17070,116 @@
   <colItems count="1">
     <i/>
   </colItems>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{478CC6F9-D53B-1149-B50F-D42E15783ACC}" name="PivotTable4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:A6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="23">
+        <item h="1" x="16"/>
+        <item h="1" x="17"/>
+        <item h="1" x="18"/>
+        <item h="1" x="19"/>
+        <item h="1" x="20"/>
+        <item h="1" x="21"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
+        <item h="1" x="13"/>
+        <item h="1" x="14"/>
+        <item h="1" x="15"/>
+        <item x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="14">
+        <item x="5"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="11"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="12"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="14">
+        <item x="2"/>
+        <item x="12"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="0" hier="-1"/>
+  </pageFields>
+  <formats count="1">
+    <format dxfId="0">
+      <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -17514,8 +17512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4690018A-C7FA-4445-B318-6FC86EDDE76E}">
   <dimension ref="A1:AX260"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AL260"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="Q189" sqref="Q189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -22192,7 +22190,9 @@
       <c r="U62" s="19"/>
       <c r="V62" s="19"/>
       <c r="W62" s="19"/>
-      <c r="X62" s="19"/>
+      <c r="X62" s="19" t="s">
+        <v>874</v>
+      </c>
       <c r="Y62" s="19"/>
       <c r="Z62" s="19"/>
       <c r="AA62" s="19"/>
@@ -22342,7 +22342,9 @@
       <c r="U64" s="19"/>
       <c r="V64" s="19"/>
       <c r="W64" s="19"/>
-      <c r="X64" s="19"/>
+      <c r="X64" s="19" t="s">
+        <v>874</v>
+      </c>
       <c r="Y64" s="19"/>
       <c r="Z64" s="19"/>
       <c r="AA64" s="19"/>
@@ -27192,7 +27194,7 @@
       <c r="I130" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="J130" s="67" t="s">
+      <c r="J130" s="57" t="s">
         <v>411</v>
       </c>
       <c r="K130" s="19" t="s">
@@ -32828,7 +32830,9 @@
       <c r="U206" s="19"/>
       <c r="V206" s="19"/>
       <c r="W206" s="19"/>
-      <c r="X206" s="19"/>
+      <c r="X206" s="19" t="s">
+        <v>874</v>
+      </c>
       <c r="Y206" s="19"/>
       <c r="Z206" s="19"/>
       <c r="AA206" s="19"/>
@@ -35288,7 +35292,9 @@
       <c r="U239" s="26"/>
       <c r="V239" s="26"/>
       <c r="W239" s="26"/>
-      <c r="X239" s="26"/>
+      <c r="X239" s="26" t="s">
+        <v>874</v>
+      </c>
       <c r="Y239" s="26"/>
       <c r="Z239" s="26"/>
       <c r="AA239" s="26"/>
@@ -36706,7 +36712,9 @@
       <c r="U258" s="19"/>
       <c r="V258" s="19"/>
       <c r="W258" s="19"/>
-      <c r="X258" s="19"/>
+      <c r="X258" s="19" t="s">
+        <v>874</v>
+      </c>
       <c r="Y258" s="19"/>
       <c r="Z258" s="19"/>
       <c r="AA258" s="19"/>
@@ -36854,7 +36862,9 @@
       <c r="U260" s="19"/>
       <c r="V260" s="19"/>
       <c r="W260" s="19"/>
-      <c r="X260" s="19"/>
+      <c r="X260" s="19" t="s">
+        <v>874</v>
+      </c>
       <c r="Y260" s="19"/>
       <c r="Z260" s="19"/>
       <c r="AA260" s="19"/>
@@ -37110,25 +37120,25 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>784</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="67" t="s">
         <v>785</v>
       </c>
-      <c r="C5" s="66">
+      <c r="C5" s="67">
         <v>2040</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
     </row>
     <row r="7" spans="1:3" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="65"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="40" t="s">
@@ -37139,20 +37149,20 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="64" t="s">
         <v>788</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="64" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="64"/>
-      <c r="B11" s="64"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="65"/>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="65"/>
-      <c r="B12" s="65"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="66"/>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="40" t="s">
@@ -37161,18 +37171,18 @@
       <c r="B14" s="40"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="58" t="s">
         <v>791</v>
       </c>
-      <c r="B15" s="58"/>
+      <c r="B15" s="59"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="59"/>
-      <c r="B16" s="60"/>
+      <c r="A16" s="60"/>
+      <c r="B16" s="61"/>
     </row>
     <row r="17" spans="1:13" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="61"/>
-      <c r="B17" s="62"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="63"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="40" t="s">
@@ -37181,30 +37191,30 @@
       <c r="B19" s="40"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="58" t="s">
         <v>793</v>
       </c>
-      <c r="B20" s="58"/>
+      <c r="B20" s="59"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="59"/>
-      <c r="B21" s="60"/>
+      <c r="A21" s="60"/>
+      <c r="B21" s="61"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="59"/>
-      <c r="B22" s="60"/>
+      <c r="A22" s="60"/>
+      <c r="B22" s="61"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="59"/>
-      <c r="B23" s="60"/>
+      <c r="A23" s="60"/>
+      <c r="B23" s="61"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="59"/>
-      <c r="B24" s="60"/>
+      <c r="A24" s="60"/>
+      <c r="B24" s="61"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="61"/>
-      <c r="B25" s="62"/>
+      <c r="A25" s="62"/>
+      <c r="B25" s="63"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C27" s="41"/>
@@ -40527,15 +40537,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101008C48BB244BD19E429454E4BA1784D4BC" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="6a545a198e626bc673e15896bbd8c3ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8973d3f9-d2c4-4b1b-b901-492df86bbec5" xmlns:ns3="6084a402-9ec0-4166-ac59-f18ac1e28eb8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dfd4ad97513510c1a3e21f8c9957a8a4" ns2:_="" ns3:_="">
     <xsd:import namespace="8973d3f9-d2c4-4b1b-b901-492df86bbec5"/>
@@ -40730,6 +40731,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB20C743-A608-4DAB-A1BE-03C9EA1DCE1E}">
   <ds:schemaRefs>
@@ -40748,14 +40758,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC9C2A0-A93B-4672-B000-0240CEE690D6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FEBE4FF-E286-431C-BEA2-5EF67C14F2A8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -40772,4 +40774,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC9C2A0-A93B-4672-B000-0240CEE690D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>